--- a/example.xlsx
+++ b/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Day</t>
   </si>
@@ -121,7 +121,19 @@
     <t>Travel to Nagoya</t>
   </si>
   <si>
+    <t>Road trip!</t>
+  </si>
+  <si>
     <t>Travel to Tokyo</t>
+  </si>
+  <si>
+    <t>Harajuku</t>
+  </si>
+  <si>
+    <t>Dinner at Chopstick Cafe</t>
+  </si>
+  <si>
+    <t>Hotel Fukudaya</t>
   </si>
   <si>
     <t>NM leaves at 14:00 (flight at 17:40)</t>
@@ -459,7 +471,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="6"/>
@@ -476,8 +488,21 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -488,7 +513,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="E15" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
